--- a/ScenarioTest.xlsx
+++ b/ScenarioTest.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioInfo" sheetId="1" r:id="rId1"/>
     <sheet name="ScenarioParameters" sheetId="3" r:id="rId2"/>
     <sheet name="SpecsData" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -539,7 +539,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -549,24 +549,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -595,7 +595,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -3388,19 +3388,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -3437,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26578247</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -3469,7 +3469,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>30000000</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -3509,6 +3509,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3517,10 +3518,10 @@
   <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">

--- a/ScenarioTest.xlsx
+++ b/ScenarioTest.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioInfo" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -539,7 +539,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -553,20 +553,20 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -595,7 +595,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -3389,18 +3389,18 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -3521,7 +3521,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
